--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H2">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I2">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J2">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.573650140400691</v>
+        <v>0.6559766666666667</v>
       </c>
       <c r="N2">
-        <v>0.573650140400691</v>
+        <v>1.96793</v>
       </c>
       <c r="O2">
-        <v>0.02737775288585044</v>
+        <v>0.030799191223283</v>
       </c>
       <c r="P2">
-        <v>0.02737775288585044</v>
+        <v>0.030799191223283</v>
       </c>
       <c r="Q2">
-        <v>13.36171846766117</v>
+        <v>0.1406468638055555</v>
       </c>
       <c r="R2">
-        <v>13.36171846766117</v>
+        <v>1.26582177425</v>
       </c>
       <c r="S2">
-        <v>0.02658111285011388</v>
+        <v>0.0002652225180135923</v>
       </c>
       <c r="T2">
-        <v>0.02658111285011388</v>
+        <v>0.0002652225180135923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H3">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I3">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J3">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.7580209625205</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N3">
-        <v>16.7580209625205</v>
+        <v>50.444323</v>
       </c>
       <c r="O3">
-        <v>0.7997853124333257</v>
+        <v>0.7894815111340611</v>
       </c>
       <c r="P3">
-        <v>0.7997853124333257</v>
+        <v>0.789481511134061</v>
       </c>
       <c r="Q3">
-        <v>390.3354020273738</v>
+        <v>3.605227740186111</v>
       </c>
       <c r="R3">
-        <v>390.3354020273738</v>
+        <v>32.447049661675</v>
       </c>
       <c r="S3">
-        <v>0.7765130956617384</v>
+        <v>0.006798499116102183</v>
       </c>
       <c r="T3">
-        <v>0.7765130956617384</v>
+        <v>0.006798499116102182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H4">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I4">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J4">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.550240242775704</v>
+        <v>0.5954103333333334</v>
       </c>
       <c r="N4">
-        <v>0.550240242775704</v>
+        <v>1.786231</v>
       </c>
       <c r="O4">
-        <v>0.02626050328174108</v>
+        <v>0.02795550153610953</v>
       </c>
       <c r="P4">
-        <v>0.02626050328174108</v>
+        <v>0.02795550153610953</v>
       </c>
       <c r="Q4">
-        <v>12.81644454651585</v>
+        <v>0.1276609372194445</v>
       </c>
       <c r="R4">
-        <v>12.81644454651585</v>
+        <v>1.148948434975</v>
       </c>
       <c r="S4">
-        <v>0.02549637306404018</v>
+        <v>0.0002407345198121564</v>
       </c>
       <c r="T4">
-        <v>0.02549637306404018</v>
+        <v>0.0002407345198121564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H5">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I5">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J5">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.07123783321796</v>
+        <v>3.232341666666667</v>
       </c>
       <c r="N5">
-        <v>3.07123783321796</v>
+        <v>9.697025</v>
       </c>
       <c r="O5">
-        <v>0.1465764313990827</v>
+        <v>0.1517637961065464</v>
       </c>
       <c r="P5">
-        <v>0.1465764313990827</v>
+        <v>0.1517637961065464</v>
       </c>
       <c r="Q5">
-        <v>71.53666038680649</v>
+        <v>0.6930409895138889</v>
       </c>
       <c r="R5">
-        <v>71.53666038680649</v>
+        <v>6.237368905625001</v>
       </c>
       <c r="S5">
-        <v>0.1423113387147137</v>
+        <v>0.00130689068602072</v>
       </c>
       <c r="T5">
-        <v>0.1423113387147137</v>
+        <v>0.00130689068602072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.698078370447083</v>
+        <v>23.971258</v>
       </c>
       <c r="H6">
-        <v>0.698078370447083</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I6">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="J6">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.573650140400691</v>
+        <v>0.6559766666666667</v>
       </c>
       <c r="N6">
-        <v>0.573650140400691</v>
+        <v>1.96793</v>
       </c>
       <c r="O6">
-        <v>0.02737775288585044</v>
+        <v>0.030799191223283</v>
       </c>
       <c r="P6">
-        <v>0.02737775288585044</v>
+        <v>0.030799191223283</v>
       </c>
       <c r="Q6">
-        <v>0.4004527552176547</v>
+        <v>15.72458591864666</v>
       </c>
       <c r="R6">
-        <v>0.4004527552176547</v>
+        <v>141.52127326782</v>
       </c>
       <c r="S6">
-        <v>0.0007966400357365646</v>
+        <v>0.02965238014713421</v>
       </c>
       <c r="T6">
-        <v>0.0007966400357365646</v>
+        <v>0.02965238014713421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.698078370447083</v>
+        <v>23.971258</v>
       </c>
       <c r="H7">
-        <v>0.698078370447083</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I7">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="J7">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.7580209625205</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N7">
-        <v>16.7580209625205</v>
+        <v>50.444323</v>
       </c>
       <c r="O7">
-        <v>0.7997853124333257</v>
+        <v>0.7894815111340611</v>
       </c>
       <c r="P7">
-        <v>0.7997853124333257</v>
+        <v>0.789481511134061</v>
       </c>
       <c r="Q7">
-        <v>11.69841196543437</v>
+        <v>403.0712937561112</v>
       </c>
       <c r="R7">
-        <v>11.69841196543437</v>
+        <v>3627.641643805001</v>
       </c>
       <c r="S7">
-        <v>0.02327221677158741</v>
+        <v>0.7600850852727614</v>
       </c>
       <c r="T7">
-        <v>0.02327221677158741</v>
+        <v>0.7600850852727613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.698078370447083</v>
+        <v>23.971258</v>
       </c>
       <c r="H8">
-        <v>0.698078370447083</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I8">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="J8">
-        <v>0.02909807970939389</v>
+        <v>0.9627648963950115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.550240242775704</v>
+        <v>0.5954103333333334</v>
       </c>
       <c r="N8">
-        <v>0.550240242775704</v>
+        <v>1.786231</v>
       </c>
       <c r="O8">
-        <v>0.02626050328174108</v>
+        <v>0.02795550153610953</v>
       </c>
       <c r="P8">
-        <v>0.02626050328174108</v>
+        <v>0.02795550153610953</v>
       </c>
       <c r="Q8">
-        <v>0.3841108120312708</v>
+        <v>14.27273471619933</v>
       </c>
       <c r="R8">
-        <v>0.3841108120312708</v>
+        <v>128.454612445794</v>
       </c>
       <c r="S8">
-        <v>0.0007641302177009018</v>
+        <v>0.02691457554008307</v>
       </c>
       <c r="T8">
-        <v>0.0007641302177009018</v>
+        <v>0.02691457554008307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>23.971258</v>
+      </c>
+      <c r="H9">
+        <v>71.91377399999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="J9">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.232341666666667</v>
+      </c>
+      <c r="N9">
+        <v>9.697025</v>
+      </c>
+      <c r="O9">
+        <v>0.1517637961065464</v>
+      </c>
+      <c r="P9">
+        <v>0.1517637961065464</v>
+      </c>
+      <c r="Q9">
+        <v>77.48329603581665</v>
+      </c>
+      <c r="R9">
+        <v>697.3496643223499</v>
+      </c>
+      <c r="S9">
+        <v>0.1461128554350328</v>
+      </c>
+      <c r="T9">
+        <v>0.1461128554350328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.138053</v>
+      </c>
+      <c r="I10">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J10">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6559766666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.96793</v>
+      </c>
+      <c r="O10">
+        <v>0.030799191223283</v>
+      </c>
+      <c r="P10">
+        <v>0.030799191223283</v>
+      </c>
+      <c r="Q10">
+        <v>0.4675042933655555</v>
+      </c>
+      <c r="R10">
+        <v>4.20753864029</v>
+      </c>
+      <c r="S10">
+        <v>0.0008815885581352016</v>
+      </c>
+      <c r="T10">
+        <v>0.0008815885581352016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.698078370447083</v>
-      </c>
-      <c r="H9">
-        <v>0.698078370447083</v>
-      </c>
-      <c r="I9">
-        <v>0.02909807970939389</v>
-      </c>
-      <c r="J9">
-        <v>0.02909807970939389</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.07123783321796</v>
-      </c>
-      <c r="N9">
-        <v>3.07123783321796</v>
-      </c>
-      <c r="O9">
-        <v>0.1465764313990827</v>
-      </c>
-      <c r="P9">
-        <v>0.1465764313990827</v>
-      </c>
-      <c r="Q9">
-        <v>2.143964701868224</v>
-      </c>
-      <c r="R9">
-        <v>2.143964701868224</v>
-      </c>
-      <c r="S9">
-        <v>0.004265092684369014</v>
-      </c>
-      <c r="T9">
-        <v>0.004265092684369014</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.138053</v>
+      </c>
+      <c r="I11">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J11">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.81477433333333</v>
+      </c>
+      <c r="N11">
+        <v>50.444323</v>
+      </c>
+      <c r="O11">
+        <v>0.7894815111340611</v>
+      </c>
+      <c r="P11">
+        <v>0.789481511134061</v>
+      </c>
+      <c r="Q11">
+        <v>11.98362623590211</v>
+      </c>
+      <c r="R11">
+        <v>107.852636123119</v>
+      </c>
+      <c r="S11">
+        <v>0.02259792674519744</v>
+      </c>
+      <c r="T11">
+        <v>0.02259792674519743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.138053</v>
+      </c>
+      <c r="I12">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J12">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5954103333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.786231</v>
+      </c>
+      <c r="O12">
+        <v>0.02795550153610953</v>
+      </c>
+      <c r="P12">
+        <v>0.02795550153610953</v>
+      </c>
+      <c r="Q12">
+        <v>0.4243396164714445</v>
+      </c>
+      <c r="R12">
+        <v>3.819056548243001</v>
+      </c>
+      <c r="S12">
+        <v>0.0008001914762142959</v>
+      </c>
+      <c r="T12">
+        <v>0.0008001914762142959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.138053</v>
+      </c>
+      <c r="I13">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J13">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.232341666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.697025</v>
+      </c>
+      <c r="O13">
+        <v>0.1517637961065464</v>
+      </c>
+      <c r="P13">
+        <v>0.1517637961065464</v>
+      </c>
+      <c r="Q13">
+        <v>2.303639265813889</v>
+      </c>
+      <c r="R13">
+        <v>20.732753392325</v>
+      </c>
+      <c r="S13">
+        <v>0.00434404998549288</v>
+      </c>
+      <c r="T13">
+        <v>0.00434404998549288</v>
       </c>
     </row>
   </sheetData>
